--- a/Code/Results/Cases/Case_4_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_172/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9974512529670793</v>
+        <v>1.032369287002124</v>
       </c>
       <c r="D2">
-        <v>1.018734928969436</v>
+        <v>1.038877566845704</v>
       </c>
       <c r="E2">
-        <v>1.005644103412019</v>
+        <v>1.03600998851591</v>
       </c>
       <c r="F2">
-        <v>1.018508707945076</v>
+        <v>1.046290008889653</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046024383478942</v>
+        <v>1.034252192964906</v>
       </c>
       <c r="J2">
-        <v>1.019708464782284</v>
+        <v>1.037499885917508</v>
       </c>
       <c r="K2">
-        <v>1.029939283798821</v>
+        <v>1.04166434889497</v>
       </c>
       <c r="L2">
-        <v>1.017025362977702</v>
+        <v>1.03880495523503</v>
       </c>
       <c r="M2">
-        <v>1.029716071366754</v>
+        <v>1.049055859801566</v>
       </c>
       <c r="N2">
-        <v>1.021156567764466</v>
+        <v>1.038973254758411</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002738628987174</v>
+        <v>1.033467922030577</v>
       </c>
       <c r="D3">
-        <v>1.022749777755826</v>
+        <v>1.039719290054452</v>
       </c>
       <c r="E3">
-        <v>1.010418784560586</v>
+        <v>1.037056905091805</v>
       </c>
       <c r="F3">
-        <v>1.023311698786628</v>
+        <v>1.047333409820946</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047566668129004</v>
+        <v>1.034474207408196</v>
       </c>
       <c r="J3">
-        <v>1.023154913616035</v>
+        <v>1.038240029100217</v>
       </c>
       <c r="K3">
-        <v>1.033099616137416</v>
+        <v>1.042316092220624</v>
       </c>
       <c r="L3">
-        <v>1.020920068399985</v>
+        <v>1.03966075458725</v>
       </c>
       <c r="M3">
-        <v>1.033654743808291</v>
+        <v>1.049910270949507</v>
       </c>
       <c r="N3">
-        <v>1.024607910950879</v>
+        <v>1.039714449029335</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006080692059624</v>
+        <v>1.034178759084533</v>
       </c>
       <c r="D4">
-        <v>1.025288163642525</v>
+        <v>1.040263524802836</v>
       </c>
       <c r="E4">
-        <v>1.013442413939529</v>
+        <v>1.037734635416843</v>
       </c>
       <c r="F4">
-        <v>1.026351940814479</v>
+        <v>1.048008636136325</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048526174822292</v>
+        <v>1.034615931612829</v>
       </c>
       <c r="J4">
-        <v>1.025330121808612</v>
+        <v>1.038718358032192</v>
       </c>
       <c r="K4">
-        <v>1.035090670147494</v>
+        <v>1.042736755084068</v>
       </c>
       <c r="L4">
-        <v>1.02338126351885</v>
+        <v>1.040214221299974</v>
       </c>
       <c r="M4">
-        <v>1.036142393233977</v>
+        <v>1.050462606796468</v>
       </c>
       <c r="N4">
-        <v>1.026786208188589</v>
+        <v>1.040193457243258</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007467507917377</v>
+        <v>1.034477582810916</v>
       </c>
       <c r="D5">
-        <v>1.026341572748349</v>
+        <v>1.040492221021307</v>
       </c>
       <c r="E5">
-        <v>1.014698398719139</v>
+        <v>1.03801962637527</v>
       </c>
       <c r="F5">
-        <v>1.027614496597962</v>
+        <v>1.048292519391357</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048920586321399</v>
+        <v>1.034675049199905</v>
       </c>
       <c r="J5">
-        <v>1.026231921419489</v>
+        <v>1.038919305512804</v>
       </c>
       <c r="K5">
-        <v>1.035915243603159</v>
+        <v>1.042913348101665</v>
       </c>
       <c r="L5">
-        <v>1.024402370339132</v>
+        <v>1.040446828657828</v>
       </c>
       <c r="M5">
-        <v>1.037174141980107</v>
+        <v>1.050694682894506</v>
       </c>
       <c r="N5">
-        <v>1.027689288458352</v>
+        <v>1.040394690092342</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00769931566237</v>
+        <v>1.03452775593266</v>
       </c>
       <c r="D6">
-        <v>1.026517654123505</v>
+        <v>1.040530614243659</v>
       </c>
       <c r="E6">
-        <v>1.014908413378176</v>
+        <v>1.038067481900723</v>
       </c>
       <c r="F6">
-        <v>1.027825590215089</v>
+        <v>1.048340185697633</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048986290765719</v>
+        <v>1.034684948128706</v>
       </c>
       <c r="J6">
-        <v>1.026382608687984</v>
+        <v>1.038953037152156</v>
       </c>
       <c r="K6">
-        <v>1.036052974333714</v>
+        <v>1.042942983966042</v>
       </c>
       <c r="L6">
-        <v>1.024573037209088</v>
+        <v>1.040485880349682</v>
       </c>
       <c r="M6">
-        <v>1.037346567512414</v>
+        <v>1.050733642106165</v>
       </c>
       <c r="N6">
-        <v>1.027840189720052</v>
+        <v>1.040428469634491</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006099293228558</v>
+        <v>1.034182752028892</v>
       </c>
       <c r="D7">
-        <v>1.025302292630721</v>
+        <v>1.040266581046593</v>
       </c>
       <c r="E7">
-        <v>1.013459255187845</v>
+        <v>1.037738443192588</v>
       </c>
       <c r="F7">
-        <v>1.026368871493179</v>
+        <v>1.048012429327269</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048531479885882</v>
+        <v>1.034616723365601</v>
       </c>
       <c r="J7">
-        <v>1.025342220822053</v>
+        <v>1.038721043660237</v>
       </c>
       <c r="K7">
-        <v>1.035101736560596</v>
+        <v>1.042739115725566</v>
       </c>
       <c r="L7">
-        <v>1.023394960276633</v>
+        <v>1.040217329686101</v>
       </c>
       <c r="M7">
-        <v>1.036156234075738</v>
+        <v>1.050465708303506</v>
       </c>
       <c r="N7">
-        <v>1.026798324384017</v>
+        <v>1.040196146685204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9992550338449924</v>
+        <v>1.032740587235901</v>
       </c>
       <c r="D8">
-        <v>1.020104402490461</v>
+        <v>1.039162117154203</v>
       </c>
       <c r="E8">
-        <v>1.007271766948596</v>
+        <v>1.036363735687647</v>
       </c>
       <c r="F8">
-        <v>1.020146289106847</v>
+        <v>1.046642615285807</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046553717890758</v>
+        <v>1.034327624070508</v>
       </c>
       <c r="J8">
-        <v>1.020884868077807</v>
+        <v>1.037750143605434</v>
       </c>
       <c r="K8">
-        <v>1.031018762639549</v>
+        <v>1.04188482768123</v>
       </c>
       <c r="L8">
-        <v>1.018354130302801</v>
+        <v>1.039094237252895</v>
       </c>
       <c r="M8">
-        <v>1.031060109538924</v>
+        <v>1.049344720737283</v>
       </c>
       <c r="N8">
-        <v>1.022334641687609</v>
+        <v>1.039223867840959</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9865502865264156</v>
+        <v>1.030198873914291</v>
       </c>
       <c r="D9">
-        <v>1.010464738751263</v>
+        <v>1.037212736649512</v>
       </c>
       <c r="E9">
-        <v>0.9958335556812634</v>
+        <v>1.033943660952538</v>
       </c>
       <c r="F9">
-        <v>1.00863340888837</v>
+        <v>1.044229415343362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042762505114505</v>
+        <v>1.033803393490287</v>
       </c>
       <c r="J9">
-        <v>1.012587095198313</v>
+        <v>1.036034749249194</v>
       </c>
       <c r="K9">
-        <v>1.023390284219068</v>
+        <v>1.0403713633929</v>
       </c>
       <c r="L9">
-        <v>1.008994594175338</v>
+        <v>1.037112961396655</v>
       </c>
       <c r="M9">
-        <v>1.021587950956095</v>
+        <v>1.047365379354678</v>
       </c>
       <c r="N9">
-        <v>1.014025085018858</v>
+        <v>1.037506037427974</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9775904803285396</v>
+        <v>1.028504065639006</v>
       </c>
       <c r="D10">
-        <v>1.003678115376127</v>
+        <v>1.035911033489329</v>
       </c>
       <c r="E10">
-        <v>0.9878026331308873</v>
+        <v>1.032331840843971</v>
       </c>
       <c r="F10">
-        <v>1.000544460431552</v>
+        <v>1.042621012396929</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040011606011629</v>
+        <v>1.033443968942215</v>
       </c>
       <c r="J10">
-        <v>1.006722310386054</v>
+        <v>1.034888092954161</v>
       </c>
       <c r="K10">
-        <v>1.017981276362152</v>
+        <v>1.039356949960692</v>
       </c>
       <c r="L10">
-        <v>1.002395663283033</v>
+        <v>1.035790596717775</v>
       </c>
       <c r="M10">
-        <v>1.014903891430593</v>
+        <v>1.046043120477531</v>
       </c>
       <c r="N10">
-        <v>1.008151971539465</v>
+        <v>1.036357752749479</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9735804917062514</v>
+        <v>1.027770106039837</v>
       </c>
       <c r="D11">
-        <v>1.000644814725938</v>
+        <v>1.035346882519169</v>
       </c>
       <c r="E11">
-        <v>0.9842177008853754</v>
+        <v>1.031634272981608</v>
       </c>
       <c r="F11">
-        <v>0.9969325494001389</v>
+        <v>1.041924649591113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038763088694493</v>
+        <v>1.033285979444769</v>
       </c>
       <c r="J11">
-        <v>1.004095207053984</v>
+        <v>1.034390850357543</v>
       </c>
       <c r="K11">
-        <v>1.015554581022185</v>
+        <v>1.038916408979606</v>
       </c>
       <c r="L11">
-        <v>0.9994435145384133</v>
+        <v>1.03521763682739</v>
       </c>
       <c r="M11">
-        <v>1.011912546121598</v>
+        <v>1.045469927554834</v>
       </c>
       <c r="N11">
-        <v>1.00552113741933</v>
+        <v>1.03585980401134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9720700999520901</v>
+        <v>1.027497465301857</v>
       </c>
       <c r="D12">
-        <v>0.9995030326221289</v>
+        <v>1.035137255984262</v>
       </c>
       <c r="E12">
-        <v>0.9828688913747331</v>
+        <v>1.031375219087168</v>
       </c>
       <c r="F12">
-        <v>0.9955734508021588</v>
+        <v>1.041666002209173</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03829030779184</v>
+        <v>1.033226941213382</v>
       </c>
       <c r="J12">
-        <v>1.003105413300272</v>
+        <v>1.034206041938619</v>
       </c>
       <c r="K12">
-        <v>1.014639759939921</v>
+        <v>1.038752578101805</v>
       </c>
       <c r="L12">
-        <v>0.9983318241974589</v>
+        <v>1.03500475853005</v>
       </c>
       <c r="M12">
-        <v>1.010785950732704</v>
+        <v>1.04525692096057</v>
       </c>
       <c r="N12">
-        <v>1.004529938044958</v>
+        <v>1.035674733143263</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9723950525469872</v>
+        <v>1.0275559483811</v>
       </c>
       <c r="D13">
-        <v>0.999748645719317</v>
+        <v>1.035182225013543</v>
       </c>
       <c r="E13">
-        <v>0.9831590121671386</v>
+        <v>1.031430784594891</v>
       </c>
       <c r="F13">
-        <v>0.9958657905785643</v>
+        <v>1.04172148237592</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038392136284309</v>
+        <v>1.033239621127333</v>
       </c>
       <c r="J13">
-        <v>1.003318373353012</v>
+        <v>1.034245688971179</v>
       </c>
       <c r="K13">
-        <v>1.014836612761482</v>
+        <v>1.038787729176393</v>
       </c>
       <c r="L13">
-        <v>0.9985709854325797</v>
+        <v>1.035050424163161</v>
       </c>
       <c r="M13">
-        <v>1.011028324700209</v>
+        <v>1.045302616000082</v>
       </c>
       <c r="N13">
-        <v>1.004743200525399</v>
+        <v>1.035714436479157</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9734560767359194</v>
+        <v>1.027747569792484</v>
       </c>
       <c r="D14">
-        <v>1.000550747497955</v>
+        <v>1.035329556268975</v>
       </c>
       <c r="E14">
-        <v>0.9841065653006423</v>
+        <v>1.031612858409012</v>
       </c>
       <c r="F14">
-        <v>0.9968205687162093</v>
+        <v>1.041903269458482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038724195089465</v>
+        <v>1.033281106544934</v>
       </c>
       <c r="J14">
-        <v>1.004013680306754</v>
+        <v>1.034375576289291</v>
       </c>
       <c r="K14">
-        <v>1.01547924023318</v>
+        <v>1.038902870632938</v>
       </c>
       <c r="L14">
-        <v>0.999351935968106</v>
+        <v>1.035200041374553</v>
       </c>
       <c r="M14">
-        <v>1.011819742513835</v>
+        <v>1.045452322347491</v>
       </c>
       <c r="N14">
-        <v>1.005439494894768</v>
+        <v>1.035844508252158</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9741069973272038</v>
+        <v>1.027865631990075</v>
       </c>
       <c r="D15">
-        <v>1.001042923808687</v>
+        <v>1.035420321884141</v>
       </c>
       <c r="E15">
-        <v>0.984688070949465</v>
+        <v>1.031725047222696</v>
       </c>
       <c r="F15">
-        <v>0.9974064907616562</v>
+        <v>1.042015276165988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038927578646313</v>
+        <v>1.033306620188232</v>
       </c>
       <c r="J15">
-        <v>1.004440205293095</v>
+        <v>1.034455589518206</v>
       </c>
       <c r="K15">
-        <v>1.015873380489194</v>
+        <v>1.038973787330814</v>
       </c>
       <c r="L15">
-        <v>0.9998310723776491</v>
+        <v>1.035292218115189</v>
       </c>
       <c r="M15">
-        <v>1.012305282523035</v>
+        <v>1.045544548481642</v>
       </c>
       <c r="N15">
-        <v>1.005866625595513</v>
+        <v>1.035924635109036</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9778537538330636</v>
+        <v>1.028552774005462</v>
       </c>
       <c r="D16">
-        <v>1.003877359694534</v>
+        <v>1.035948463703023</v>
       </c>
       <c r="E16">
-        <v>0.9880382003988673</v>
+        <v>1.032378143699245</v>
       </c>
       <c r="F16">
-        <v>1.000781780003531</v>
+        <v>1.042667229504471</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040093223417595</v>
+        <v>1.033454404549829</v>
       </c>
       <c r="J16">
-        <v>1.006894749288591</v>
+        <v>1.034921077843847</v>
       </c>
       <c r="K16">
-        <v>1.018140485298398</v>
+        <v>1.039386159963473</v>
       </c>
       <c r="L16">
-        <v>1.002589516508164</v>
+        <v>1.035828614414933</v>
       </c>
       <c r="M16">
-        <v>1.015100297216398</v>
+        <v>1.046081147778595</v>
       </c>
       <c r="N16">
-        <v>1.008324655325023</v>
+        <v>1.036390784481492</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9801682033324056</v>
+        <v>1.028983773532892</v>
       </c>
       <c r="D17">
-        <v>1.005629401942124</v>
+        <v>1.036279618014986</v>
       </c>
       <c r="E17">
-        <v>0.9901101514807517</v>
+        <v>1.032787910237704</v>
       </c>
       <c r="F17">
-        <v>1.002869023886493</v>
+        <v>1.043076205575771</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04080876714304</v>
+        <v>1.033546475006974</v>
       </c>
       <c r="J17">
-        <v>1.008410414428193</v>
+        <v>1.035212869973774</v>
       </c>
       <c r="K17">
-        <v>1.019539442088049</v>
+        <v>1.039644484147914</v>
       </c>
       <c r="L17">
-        <v>1.004293836488569</v>
+        <v>1.036164983102309</v>
       </c>
       <c r="M17">
-        <v>1.016826935031764</v>
+        <v>1.046417569255909</v>
       </c>
       <c r="N17">
-        <v>1.009842472882972</v>
+        <v>1.036682990989713</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9815057025075099</v>
+        <v>1.02923515902666</v>
       </c>
       <c r="D18">
-        <v>1.006642268116551</v>
+        <v>1.036472725998784</v>
       </c>
       <c r="E18">
-        <v>0.9913083902601456</v>
+        <v>1.033026954970416</v>
       </c>
       <c r="F18">
-        <v>1.004076003104051</v>
+        <v>1.043314762737344</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041220626655486</v>
+        <v>1.033599950791456</v>
       </c>
       <c r="J18">
-        <v>1.009286080983777</v>
+        <v>1.035382996695418</v>
       </c>
       <c r="K18">
-        <v>1.020347323956391</v>
+        <v>1.039795035495594</v>
       </c>
       <c r="L18">
-        <v>1.005278857954801</v>
+        <v>1.036361145852519</v>
       </c>
       <c r="M18">
-        <v>1.017824748389609</v>
+        <v>1.046613735882777</v>
       </c>
       <c r="N18">
-        <v>1.010719382985505</v>
+        <v>1.036853359310815</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.981959676620645</v>
+        <v>1.029320873446236</v>
       </c>
       <c r="D19">
-        <v>1.006986115743926</v>
+        <v>1.036538562562999</v>
       </c>
       <c r="E19">
-        <v>0.9917152431200986</v>
+        <v>1.033108468967417</v>
       </c>
       <c r="F19">
-        <v>1.004485805473949</v>
+        <v>1.043396105984706</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041360138196728</v>
+        <v>1.033618146085191</v>
       </c>
       <c r="J19">
-        <v>1.00958326008405</v>
+        <v>1.035440993528921</v>
       </c>
       <c r="K19">
-        <v>1.020621437181677</v>
+        <v>1.039846348451146</v>
       </c>
       <c r="L19">
-        <v>1.005613210665021</v>
+        <v>1.036428026283424</v>
       </c>
       <c r="M19">
-        <v>1.018163424377914</v>
+        <v>1.046680613065562</v>
       </c>
       <c r="N19">
-        <v>1.011016984114187</v>
+        <v>1.036911438506475</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9799211848647503</v>
+        <v>1.028937532324973</v>
       </c>
       <c r="D20">
-        <v>1.005442368569382</v>
+        <v>1.036244093330095</v>
       </c>
       <c r="E20">
-        <v>0.9898889229760349</v>
+        <v>1.032743942564446</v>
       </c>
       <c r="F20">
-        <v>1.002646173114931</v>
+        <v>1.043032325452568</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040732568325933</v>
+        <v>1.033536620233842</v>
       </c>
       <c r="J20">
-        <v>1.008248671884437</v>
+        <v>1.035181570753478</v>
       </c>
       <c r="K20">
-        <v>1.019390190810894</v>
+        <v>1.039616781314291</v>
       </c>
       <c r="L20">
-        <v>1.004111924436259</v>
+        <v>1.036128897590637</v>
       </c>
       <c r="M20">
-        <v>1.016642651800857</v>
+        <v>1.04638148086318</v>
       </c>
       <c r="N20">
-        <v>1.009680500646252</v>
+        <v>1.036651647320934</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9731442197999484</v>
+        <v>1.027691142497581</v>
       </c>
       <c r="D21">
-        <v>1.00031497204128</v>
+        <v>1.035286172976483</v>
       </c>
       <c r="E21">
-        <v>0.9838280184336345</v>
+        <v>1.03155924072461</v>
       </c>
       <c r="F21">
-        <v>0.9965399015703568</v>
+        <v>1.041849737342671</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038626664663385</v>
+        <v>1.033268899891899</v>
       </c>
       <c r="J21">
-        <v>1.003809322232386</v>
+        <v>1.034337330760697</v>
       </c>
       <c r="K21">
-        <v>1.015290379637085</v>
+        <v>1.038868969708989</v>
       </c>
       <c r="L21">
-        <v>0.999122390742411</v>
+        <v>1.035155984368997</v>
       </c>
       <c r="M21">
-        <v>1.011587124431777</v>
+        <v>1.045408240244546</v>
       </c>
       <c r="N21">
-        <v>1.005234846608494</v>
+        <v>1.035806208410527</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9687615895558184</v>
+        <v>1.026907397793023</v>
       </c>
       <c r="D22">
-        <v>0.9970034508471112</v>
+        <v>1.034683452238234</v>
       </c>
       <c r="E22">
-        <v>0.9799171469605025</v>
+        <v>1.0308146831493</v>
       </c>
       <c r="F22">
-        <v>0.9925989621616854</v>
+        <v>1.041106271042256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03725014953854</v>
+        <v>1.033098525995495</v>
       </c>
       <c r="J22">
-        <v>1.000936845080844</v>
+        <v>1.033805884811696</v>
       </c>
       <c r="K22">
-        <v>1.012634504608136</v>
+        <v>1.038397666441209</v>
       </c>
       <c r="L22">
-        <v>0.9958972306455511</v>
+        <v>1.034543954048879</v>
       </c>
       <c r="M22">
-        <v>1.008318474777273</v>
+        <v>1.044795762667313</v>
       </c>
       <c r="N22">
-        <v>1.00235829020992</v>
+        <v>1.035274007747321</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9710969117137629</v>
+        <v>1.027322884542855</v>
       </c>
       <c r="D23">
-        <v>0.9987675724123326</v>
+        <v>1.035003007405924</v>
       </c>
       <c r="E23">
-        <v>0.9820002431763687</v>
+        <v>1.031209357799685</v>
       </c>
       <c r="F23">
-        <v>0.9946981403569529</v>
+        <v>1.041500389667772</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037984983564497</v>
+        <v>1.033189038464987</v>
       </c>
       <c r="J23">
-        <v>1.002467592472211</v>
+        <v>1.034087675004844</v>
       </c>
       <c r="K23">
-        <v>1.01405010493284</v>
+        <v>1.03864761982009</v>
       </c>
       <c r="L23">
-        <v>0.9976156131167644</v>
+        <v>1.034868433447851</v>
       </c>
       <c r="M23">
-        <v>1.010060099133686</v>
+        <v>1.045120501997254</v>
       </c>
       <c r="N23">
-        <v>1.003891211438162</v>
+        <v>1.035556198114865</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9800328403471372</v>
+        <v>1.028958426764601</v>
       </c>
       <c r="D24">
-        <v>1.005526908867029</v>
+        <v>1.036260145556468</v>
       </c>
       <c r="E24">
-        <v>0.9899889183523483</v>
+        <v>1.032763809555542</v>
       </c>
       <c r="F24">
-        <v>1.002746902079602</v>
+        <v>1.043052152965477</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040767016273498</v>
+        <v>1.033541073884045</v>
       </c>
       <c r="J24">
-        <v>1.008321782262306</v>
+        <v>1.035195713742105</v>
       </c>
       <c r="K24">
-        <v>1.019457656034402</v>
+        <v>1.039629299417745</v>
       </c>
       <c r="L24">
-        <v>1.004194150655215</v>
+        <v>1.036145203189299</v>
       </c>
       <c r="M24">
-        <v>1.016725950151318</v>
+        <v>1.046397787846848</v>
       </c>
       <c r="N24">
-        <v>1.009753714849244</v>
+        <v>1.036665810394227</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9899166909672711</v>
+        <v>1.030856023398488</v>
       </c>
       <c r="D25">
-        <v>1.013017403316817</v>
+        <v>1.037717072498249</v>
       </c>
       <c r="E25">
-        <v>0.9988585052219345</v>
+        <v>1.034569032231015</v>
       </c>
       <c r="F25">
-        <v>1.011679146632896</v>
+        <v>1.04485321551902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043780630450935</v>
+        <v>1.033940672189582</v>
       </c>
       <c r="J25">
-        <v>1.014788229831171</v>
+        <v>1.036478758801539</v>
       </c>
       <c r="K25">
-        <v>1.025416946702465</v>
+        <v>1.040763589131045</v>
       </c>
       <c r="L25">
-        <v>1.011474567309351</v>
+        <v>1.037625435128279</v>
       </c>
       <c r="M25">
-        <v>1.024098824457768</v>
+        <v>1.047877562312412</v>
       </c>
       <c r="N25">
-        <v>1.016229345515368</v>
+        <v>1.037950677524812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_172/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032369287002124</v>
+        <v>0.9974512529670786</v>
       </c>
       <c r="D2">
-        <v>1.038877566845704</v>
+        <v>1.018734928969435</v>
       </c>
       <c r="E2">
-        <v>1.03600998851591</v>
+        <v>1.005644103412018</v>
       </c>
       <c r="F2">
-        <v>1.046290008889653</v>
+        <v>1.018508707945076</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034252192964906</v>
+        <v>1.046024383478942</v>
       </c>
       <c r="J2">
-        <v>1.037499885917508</v>
+        <v>1.019708464782283</v>
       </c>
       <c r="K2">
-        <v>1.04166434889497</v>
+        <v>1.029939283798821</v>
       </c>
       <c r="L2">
-        <v>1.03880495523503</v>
+        <v>1.017025362977701</v>
       </c>
       <c r="M2">
-        <v>1.049055859801566</v>
+        <v>1.029716071366754</v>
       </c>
       <c r="N2">
-        <v>1.038973254758411</v>
+        <v>1.021156567764466</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033467922030577</v>
+        <v>1.002738628987175</v>
       </c>
       <c r="D3">
-        <v>1.039719290054452</v>
+        <v>1.022749777755827</v>
       </c>
       <c r="E3">
-        <v>1.037056905091805</v>
+        <v>1.010418784560586</v>
       </c>
       <c r="F3">
-        <v>1.047333409820946</v>
+        <v>1.023311698786628</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034474207408196</v>
+        <v>1.047566668129004</v>
       </c>
       <c r="J3">
-        <v>1.038240029100217</v>
+        <v>1.023154913616036</v>
       </c>
       <c r="K3">
-        <v>1.042316092220624</v>
+        <v>1.033099616137416</v>
       </c>
       <c r="L3">
-        <v>1.03966075458725</v>
+        <v>1.020920068399986</v>
       </c>
       <c r="M3">
-        <v>1.049910270949507</v>
+        <v>1.033654743808291</v>
       </c>
       <c r="N3">
-        <v>1.039714449029335</v>
+        <v>1.02460791095088</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034178759084533</v>
+        <v>1.006080692059624</v>
       </c>
       <c r="D4">
-        <v>1.040263524802836</v>
+        <v>1.025288163642525</v>
       </c>
       <c r="E4">
-        <v>1.037734635416843</v>
+        <v>1.013442413939529</v>
       </c>
       <c r="F4">
-        <v>1.048008636136325</v>
+        <v>1.026351940814479</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034615931612829</v>
+        <v>1.048526174822292</v>
       </c>
       <c r="J4">
-        <v>1.038718358032192</v>
+        <v>1.025330121808612</v>
       </c>
       <c r="K4">
-        <v>1.042736755084068</v>
+        <v>1.035090670147494</v>
       </c>
       <c r="L4">
-        <v>1.040214221299974</v>
+        <v>1.02338126351885</v>
       </c>
       <c r="M4">
-        <v>1.050462606796468</v>
+        <v>1.036142393233977</v>
       </c>
       <c r="N4">
-        <v>1.040193457243258</v>
+        <v>1.026786208188589</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034477582810916</v>
+        <v>1.007467507917376</v>
       </c>
       <c r="D5">
-        <v>1.040492221021307</v>
+        <v>1.026341572748349</v>
       </c>
       <c r="E5">
-        <v>1.03801962637527</v>
+        <v>1.014698398719138</v>
       </c>
       <c r="F5">
-        <v>1.048292519391357</v>
+        <v>1.027614496597962</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034675049199905</v>
+        <v>1.048920586321399</v>
       </c>
       <c r="J5">
-        <v>1.038919305512804</v>
+        <v>1.026231921419489</v>
       </c>
       <c r="K5">
-        <v>1.042913348101665</v>
+        <v>1.035915243603158</v>
       </c>
       <c r="L5">
-        <v>1.040446828657828</v>
+        <v>1.024402370339131</v>
       </c>
       <c r="M5">
-        <v>1.050694682894506</v>
+        <v>1.037174141980107</v>
       </c>
       <c r="N5">
-        <v>1.040394690092342</v>
+        <v>1.027689288458351</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03452775593266</v>
+        <v>1.00769931566237</v>
       </c>
       <c r="D6">
-        <v>1.040530614243659</v>
+        <v>1.026517654123505</v>
       </c>
       <c r="E6">
-        <v>1.038067481900723</v>
+        <v>1.014908413378176</v>
       </c>
       <c r="F6">
-        <v>1.048340185697633</v>
+        <v>1.027825590215089</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034684948128706</v>
+        <v>1.048986290765719</v>
       </c>
       <c r="J6">
-        <v>1.038953037152156</v>
+        <v>1.026382608687984</v>
       </c>
       <c r="K6">
-        <v>1.042942983966042</v>
+        <v>1.036052974333714</v>
       </c>
       <c r="L6">
-        <v>1.040485880349682</v>
+        <v>1.024573037209088</v>
       </c>
       <c r="M6">
-        <v>1.050733642106165</v>
+        <v>1.037346567512414</v>
       </c>
       <c r="N6">
-        <v>1.040428469634491</v>
+        <v>1.027840189720052</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034182752028892</v>
+        <v>1.006099293228558</v>
       </c>
       <c r="D7">
-        <v>1.040266581046593</v>
+        <v>1.025302292630722</v>
       </c>
       <c r="E7">
-        <v>1.037738443192588</v>
+        <v>1.013459255187846</v>
       </c>
       <c r="F7">
-        <v>1.048012429327269</v>
+        <v>1.02636887149318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034616723365601</v>
+        <v>1.048531479885882</v>
       </c>
       <c r="J7">
-        <v>1.038721043660237</v>
+        <v>1.025342220822054</v>
       </c>
       <c r="K7">
-        <v>1.042739115725566</v>
+        <v>1.035101736560597</v>
       </c>
       <c r="L7">
-        <v>1.040217329686101</v>
+        <v>1.023394960276634</v>
       </c>
       <c r="M7">
-        <v>1.050465708303506</v>
+        <v>1.036156234075738</v>
       </c>
       <c r="N7">
-        <v>1.040196146685204</v>
+        <v>1.026798324384018</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032740587235901</v>
+        <v>0.9992550338449907</v>
       </c>
       <c r="D8">
-        <v>1.039162117154203</v>
+        <v>1.02010440249046</v>
       </c>
       <c r="E8">
-        <v>1.036363735687647</v>
+        <v>1.007271766948594</v>
       </c>
       <c r="F8">
-        <v>1.046642615285807</v>
+        <v>1.020146289106846</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034327624070508</v>
+        <v>1.046553717890757</v>
       </c>
       <c r="J8">
-        <v>1.037750143605434</v>
+        <v>1.020884868077806</v>
       </c>
       <c r="K8">
-        <v>1.04188482768123</v>
+        <v>1.031018762639547</v>
       </c>
       <c r="L8">
-        <v>1.039094237252895</v>
+        <v>1.0183541303028</v>
       </c>
       <c r="M8">
-        <v>1.049344720737283</v>
+        <v>1.031060109538923</v>
       </c>
       <c r="N8">
-        <v>1.039223867840959</v>
+        <v>1.022334641687608</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030198873914291</v>
+        <v>0.986550286526415</v>
       </c>
       <c r="D9">
-        <v>1.037212736649512</v>
+        <v>1.010464738751263</v>
       </c>
       <c r="E9">
-        <v>1.033943660952538</v>
+        <v>0.9958335556812627</v>
       </c>
       <c r="F9">
-        <v>1.044229415343362</v>
+        <v>1.008633408888369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033803393490287</v>
+        <v>1.042762505114504</v>
       </c>
       <c r="J9">
-        <v>1.036034749249194</v>
+        <v>1.012587095198313</v>
       </c>
       <c r="K9">
-        <v>1.0403713633929</v>
+        <v>1.023390284219068</v>
       </c>
       <c r="L9">
-        <v>1.037112961396655</v>
+        <v>1.008994594175338</v>
       </c>
       <c r="M9">
-        <v>1.047365379354678</v>
+        <v>1.021587950956094</v>
       </c>
       <c r="N9">
-        <v>1.037506037427974</v>
+        <v>1.014025085018857</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028504065639006</v>
+        <v>0.9775904803285389</v>
       </c>
       <c r="D10">
-        <v>1.035911033489329</v>
+        <v>1.003678115376126</v>
       </c>
       <c r="E10">
-        <v>1.032331840843971</v>
+        <v>0.9878026331308867</v>
       </c>
       <c r="F10">
-        <v>1.042621012396929</v>
+        <v>1.000544460431551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033443968942215</v>
+        <v>1.040011606011628</v>
       </c>
       <c r="J10">
-        <v>1.034888092954161</v>
+        <v>1.006722310386053</v>
       </c>
       <c r="K10">
-        <v>1.039356949960692</v>
+        <v>1.017981276362151</v>
       </c>
       <c r="L10">
-        <v>1.035790596717775</v>
+        <v>1.002395663283032</v>
       </c>
       <c r="M10">
-        <v>1.046043120477531</v>
+        <v>1.014903891430592</v>
       </c>
       <c r="N10">
-        <v>1.036357752749479</v>
+        <v>1.008151971539464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027770106039837</v>
+        <v>0.973580491706253</v>
       </c>
       <c r="D11">
-        <v>1.035346882519169</v>
+        <v>1.000644814725939</v>
       </c>
       <c r="E11">
-        <v>1.031634272981608</v>
+        <v>0.9842177008853769</v>
       </c>
       <c r="F11">
-        <v>1.041924649591113</v>
+        <v>0.9969325494001406</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033285979444769</v>
+        <v>1.038763088694494</v>
       </c>
       <c r="J11">
-        <v>1.034390850357543</v>
+        <v>1.004095207053985</v>
       </c>
       <c r="K11">
-        <v>1.038916408979606</v>
+        <v>1.015554581022187</v>
       </c>
       <c r="L11">
-        <v>1.03521763682739</v>
+        <v>0.9994435145384148</v>
       </c>
       <c r="M11">
-        <v>1.045469927554834</v>
+        <v>1.0119125461216</v>
       </c>
       <c r="N11">
-        <v>1.03585980401134</v>
+        <v>1.005521137419332</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027497465301857</v>
+        <v>0.9720700999520886</v>
       </c>
       <c r="D12">
-        <v>1.035137255984262</v>
+        <v>0.9995030326221276</v>
       </c>
       <c r="E12">
-        <v>1.031375219087168</v>
+        <v>0.9828688913747315</v>
       </c>
       <c r="F12">
-        <v>1.041666002209173</v>
+        <v>0.9955734508021574</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033226941213382</v>
+        <v>1.038290307791839</v>
       </c>
       <c r="J12">
-        <v>1.034206041938619</v>
+        <v>1.003105413300271</v>
       </c>
       <c r="K12">
-        <v>1.038752578101805</v>
+        <v>1.01463975993992</v>
       </c>
       <c r="L12">
-        <v>1.03500475853005</v>
+        <v>0.9983318241974575</v>
       </c>
       <c r="M12">
-        <v>1.04525692096057</v>
+        <v>1.010785950732703</v>
       </c>
       <c r="N12">
-        <v>1.035674733143263</v>
+        <v>1.004529938044957</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0275559483811</v>
+        <v>0.9723950525469874</v>
       </c>
       <c r="D13">
-        <v>1.035182225013543</v>
+        <v>0.9997486457193177</v>
       </c>
       <c r="E13">
-        <v>1.031430784594891</v>
+        <v>0.9831590121671391</v>
       </c>
       <c r="F13">
-        <v>1.04172148237592</v>
+        <v>0.9958657905785654</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033239621127333</v>
+        <v>1.038392136284309</v>
       </c>
       <c r="J13">
-        <v>1.034245688971179</v>
+        <v>1.003318373353013</v>
       </c>
       <c r="K13">
-        <v>1.038787729176393</v>
+        <v>1.014836612761482</v>
       </c>
       <c r="L13">
-        <v>1.035050424163161</v>
+        <v>0.9985709854325802</v>
       </c>
       <c r="M13">
-        <v>1.045302616000082</v>
+        <v>1.01102832470021</v>
       </c>
       <c r="N13">
-        <v>1.035714436479157</v>
+        <v>1.0047432005254</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027747569792484</v>
+        <v>0.9734560767359192</v>
       </c>
       <c r="D14">
-        <v>1.035329556268975</v>
+        <v>1.000550747497955</v>
       </c>
       <c r="E14">
-        <v>1.031612858409012</v>
+        <v>0.9841065653006423</v>
       </c>
       <c r="F14">
-        <v>1.041903269458482</v>
+        <v>0.9968205687162094</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033281106544934</v>
+        <v>1.038724195089464</v>
       </c>
       <c r="J14">
-        <v>1.034375576289291</v>
+        <v>1.004013680306754</v>
       </c>
       <c r="K14">
-        <v>1.038902870632938</v>
+        <v>1.015479240233181</v>
       </c>
       <c r="L14">
-        <v>1.035200041374553</v>
+        <v>0.999351935968106</v>
       </c>
       <c r="M14">
-        <v>1.045452322347491</v>
+        <v>1.011819742513835</v>
       </c>
       <c r="N14">
-        <v>1.035844508252158</v>
+        <v>1.005439494894768</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027865631990075</v>
+        <v>0.9741069973272053</v>
       </c>
       <c r="D15">
-        <v>1.035420321884141</v>
+        <v>1.001042923808688</v>
       </c>
       <c r="E15">
-        <v>1.031725047222696</v>
+        <v>0.9846880709494664</v>
       </c>
       <c r="F15">
-        <v>1.042015276165988</v>
+        <v>0.9974064907616577</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033306620188232</v>
+        <v>1.038927578646313</v>
       </c>
       <c r="J15">
-        <v>1.034455589518206</v>
+        <v>1.004440205293097</v>
       </c>
       <c r="K15">
-        <v>1.038973787330814</v>
+        <v>1.015873380489196</v>
       </c>
       <c r="L15">
-        <v>1.035292218115189</v>
+        <v>0.9998310723776506</v>
       </c>
       <c r="M15">
-        <v>1.045544548481642</v>
+        <v>1.012305282523037</v>
       </c>
       <c r="N15">
-        <v>1.035924635109036</v>
+        <v>1.005866625595514</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028552774005462</v>
+        <v>0.9778537538330626</v>
       </c>
       <c r="D16">
-        <v>1.035948463703023</v>
+        <v>1.003877359694532</v>
       </c>
       <c r="E16">
-        <v>1.032378143699245</v>
+        <v>0.9880382003988665</v>
       </c>
       <c r="F16">
-        <v>1.042667229504471</v>
+        <v>1.00078178000353</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033454404549829</v>
+        <v>1.040093223417594</v>
       </c>
       <c r="J16">
-        <v>1.034921077843847</v>
+        <v>1.00689474928859</v>
       </c>
       <c r="K16">
-        <v>1.039386159963473</v>
+        <v>1.018140485298397</v>
       </c>
       <c r="L16">
-        <v>1.035828614414933</v>
+        <v>1.002589516508163</v>
       </c>
       <c r="M16">
-        <v>1.046081147778595</v>
+        <v>1.015100297216396</v>
       </c>
       <c r="N16">
-        <v>1.036390784481492</v>
+        <v>1.008324655325022</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028983773532892</v>
+        <v>0.9801682033324048</v>
       </c>
       <c r="D17">
-        <v>1.036279618014986</v>
+        <v>1.005629401942124</v>
       </c>
       <c r="E17">
-        <v>1.032787910237704</v>
+        <v>0.9901101514807511</v>
       </c>
       <c r="F17">
-        <v>1.043076205575771</v>
+        <v>1.002869023886493</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033546475006974</v>
+        <v>1.04080876714304</v>
       </c>
       <c r="J17">
-        <v>1.035212869973774</v>
+        <v>1.008410414428192</v>
       </c>
       <c r="K17">
-        <v>1.039644484147914</v>
+        <v>1.019539442088049</v>
       </c>
       <c r="L17">
-        <v>1.036164983102309</v>
+        <v>1.004293836488569</v>
       </c>
       <c r="M17">
-        <v>1.046417569255909</v>
+        <v>1.016826935031763</v>
       </c>
       <c r="N17">
-        <v>1.036682990989713</v>
+        <v>1.009842472882971</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02923515902666</v>
+        <v>0.9815057025075098</v>
       </c>
       <c r="D18">
-        <v>1.036472725998784</v>
+        <v>1.006642268116551</v>
       </c>
       <c r="E18">
-        <v>1.033026954970416</v>
+        <v>0.9913083902601457</v>
       </c>
       <c r="F18">
-        <v>1.043314762737344</v>
+        <v>1.004076003104051</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033599950791456</v>
+        <v>1.041220626655486</v>
       </c>
       <c r="J18">
-        <v>1.035382996695418</v>
+        <v>1.009286080983777</v>
       </c>
       <c r="K18">
-        <v>1.039795035495594</v>
+        <v>1.02034732395639</v>
       </c>
       <c r="L18">
-        <v>1.036361145852519</v>
+        <v>1.005278857954801</v>
       </c>
       <c r="M18">
-        <v>1.046613735882777</v>
+        <v>1.017824748389609</v>
       </c>
       <c r="N18">
-        <v>1.036853359310815</v>
+        <v>1.010719382985505</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029320873446236</v>
+        <v>0.9819596766206447</v>
       </c>
       <c r="D19">
-        <v>1.036538562562999</v>
+        <v>1.006986115743926</v>
       </c>
       <c r="E19">
-        <v>1.033108468967417</v>
+        <v>0.9917152431200981</v>
       </c>
       <c r="F19">
-        <v>1.043396105984706</v>
+        <v>1.004485805473949</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033618146085191</v>
+        <v>1.041360138196728</v>
       </c>
       <c r="J19">
-        <v>1.035440993528921</v>
+        <v>1.009583260084049</v>
       </c>
       <c r="K19">
-        <v>1.039846348451146</v>
+        <v>1.020621437181677</v>
       </c>
       <c r="L19">
-        <v>1.036428026283424</v>
+        <v>1.005613210665021</v>
       </c>
       <c r="M19">
-        <v>1.046680613065562</v>
+        <v>1.018163424377914</v>
       </c>
       <c r="N19">
-        <v>1.036911438506475</v>
+        <v>1.011016984114187</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028937532324973</v>
+        <v>0.9799211848647503</v>
       </c>
       <c r="D20">
-        <v>1.036244093330095</v>
+        <v>1.005442368569382</v>
       </c>
       <c r="E20">
-        <v>1.032743942564446</v>
+        <v>0.9898889229760347</v>
       </c>
       <c r="F20">
-        <v>1.043032325452568</v>
+        <v>1.002646173114931</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033536620233842</v>
+        <v>1.040732568325934</v>
       </c>
       <c r="J20">
-        <v>1.035181570753478</v>
+        <v>1.008248671884437</v>
       </c>
       <c r="K20">
-        <v>1.039616781314291</v>
+        <v>1.019390190810894</v>
       </c>
       <c r="L20">
-        <v>1.036128897590637</v>
+        <v>1.004111924436258</v>
       </c>
       <c r="M20">
-        <v>1.04638148086318</v>
+        <v>1.016642651800857</v>
       </c>
       <c r="N20">
-        <v>1.036651647320934</v>
+        <v>1.009680500646251</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027691142497581</v>
+        <v>0.9731442197999486</v>
       </c>
       <c r="D21">
-        <v>1.035286172976483</v>
+        <v>1.00031497204128</v>
       </c>
       <c r="E21">
-        <v>1.03155924072461</v>
+        <v>0.9838280184336349</v>
       </c>
       <c r="F21">
-        <v>1.041849737342671</v>
+        <v>0.9965399015703571</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033268899891899</v>
+        <v>1.038626664663385</v>
       </c>
       <c r="J21">
-        <v>1.034337330760697</v>
+        <v>1.003809322232386</v>
       </c>
       <c r="K21">
-        <v>1.038868969708989</v>
+        <v>1.015290379637085</v>
       </c>
       <c r="L21">
-        <v>1.035155984368997</v>
+        <v>0.9991223907424114</v>
       </c>
       <c r="M21">
-        <v>1.045408240244546</v>
+        <v>1.011587124431777</v>
       </c>
       <c r="N21">
-        <v>1.035806208410527</v>
+        <v>1.005234846608495</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026907397793023</v>
+        <v>0.9687615895558185</v>
       </c>
       <c r="D22">
-        <v>1.034683452238234</v>
+        <v>0.9970034508471112</v>
       </c>
       <c r="E22">
-        <v>1.0308146831493</v>
+        <v>0.9799171469605025</v>
       </c>
       <c r="F22">
-        <v>1.041106271042256</v>
+        <v>0.9925989621616855</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033098525995495</v>
+        <v>1.03725014953854</v>
       </c>
       <c r="J22">
-        <v>1.033805884811696</v>
+        <v>1.000936845080844</v>
       </c>
       <c r="K22">
-        <v>1.038397666441209</v>
+        <v>1.012634504608136</v>
       </c>
       <c r="L22">
-        <v>1.034543954048879</v>
+        <v>0.995897230645551</v>
       </c>
       <c r="M22">
-        <v>1.044795762667313</v>
+        <v>1.008318474777273</v>
       </c>
       <c r="N22">
-        <v>1.035274007747321</v>
+        <v>1.00235829020992</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027322884542855</v>
+        <v>0.9710969117137619</v>
       </c>
       <c r="D23">
-        <v>1.035003007405924</v>
+        <v>0.9987675724123319</v>
       </c>
       <c r="E23">
-        <v>1.031209357799685</v>
+        <v>0.9820002431763679</v>
       </c>
       <c r="F23">
-        <v>1.041500389667772</v>
+        <v>0.994698140356952</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033189038464987</v>
+        <v>1.037984983564497</v>
       </c>
       <c r="J23">
-        <v>1.034087675004844</v>
+        <v>1.00246759247221</v>
       </c>
       <c r="K23">
-        <v>1.03864761982009</v>
+        <v>1.014050104932839</v>
       </c>
       <c r="L23">
-        <v>1.034868433447851</v>
+        <v>0.9976156131167636</v>
       </c>
       <c r="M23">
-        <v>1.045120501997254</v>
+        <v>1.010060099133685</v>
       </c>
       <c r="N23">
-        <v>1.035556198114865</v>
+        <v>1.003891211438161</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028958426764601</v>
+        <v>0.980032840347138</v>
       </c>
       <c r="D24">
-        <v>1.036260145556468</v>
+        <v>1.00552690886703</v>
       </c>
       <c r="E24">
-        <v>1.032763809555542</v>
+        <v>0.9899889183523489</v>
       </c>
       <c r="F24">
-        <v>1.043052152965477</v>
+        <v>1.002746902079603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033541073884045</v>
+        <v>1.040767016273499</v>
       </c>
       <c r="J24">
-        <v>1.035195713742105</v>
+        <v>1.008321782262307</v>
       </c>
       <c r="K24">
-        <v>1.039629299417745</v>
+        <v>1.019457656034403</v>
       </c>
       <c r="L24">
-        <v>1.036145203189299</v>
+        <v>1.004194150655215</v>
       </c>
       <c r="M24">
-        <v>1.046397787846848</v>
+        <v>1.016725950151319</v>
       </c>
       <c r="N24">
-        <v>1.036665810394227</v>
+        <v>1.009753714849244</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030856023398488</v>
+        <v>0.9899166909672723</v>
       </c>
       <c r="D25">
-        <v>1.037717072498249</v>
+        <v>1.013017403316818</v>
       </c>
       <c r="E25">
-        <v>1.034569032231015</v>
+        <v>0.9988585052219361</v>
       </c>
       <c r="F25">
-        <v>1.04485321551902</v>
+        <v>1.011679146632897</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033940672189582</v>
+        <v>1.043780630450935</v>
       </c>
       <c r="J25">
-        <v>1.036478758801539</v>
+        <v>1.014788229831172</v>
       </c>
       <c r="K25">
-        <v>1.040763589131045</v>
+        <v>1.025416946702466</v>
       </c>
       <c r="L25">
-        <v>1.037625435128279</v>
+        <v>1.011474567309352</v>
       </c>
       <c r="M25">
-        <v>1.047877562312412</v>
+        <v>1.024098824457769</v>
       </c>
       <c r="N25">
-        <v>1.037950677524812</v>
+        <v>1.016229345515369</v>
       </c>
     </row>
   </sheetData>
